--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -1,37 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5B80D048079B3011591620F66DD3FB81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AE92F6-1019-41CD-BBA4-D253A11BFF57}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>sMAPE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RRMSE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>ARX</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>ARMA</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
+  </si>
+  <si>
+    <t>ARIMAX</t>
+  </si>
+  <si>
+    <t>SARIMAX</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t>XGBRegressor</t>
+  </si>
+  <si>
+    <t>LGBMRegressor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +103,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,226 +427,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sMAPE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>RRMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.74778991142237</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4.7477899114223696</v>
+      </c>
+      <c r="C2">
         <v>0.3288058369845771</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.1170578368275651</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ARX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.694447895948978</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4615018544434568</v>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6.6944478959489784</v>
+      </c>
+      <c r="C3">
+        <v>0.46150185444345682</v>
+      </c>
+      <c r="D3">
         <v>0.161818414213101</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.86164809037231</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3361269026568495</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1189920870810132</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ARMA</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.920242800366782</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3402290313132013</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1194391347976966</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.956604764573581</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3441179585908825</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4.8616480903723103</v>
+      </c>
+      <c r="C4">
+        <v>0.33612690265684952</v>
+      </c>
+      <c r="D4">
+        <v>0.11899208708101321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4.9202428003667817</v>
+      </c>
+      <c r="C5">
+        <v>0.34022903131320131</v>
+      </c>
+      <c r="D5">
+        <v>0.11943913479769661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4.9566047645735809</v>
+      </c>
+      <c r="C6">
+        <v>0.34411795859088251</v>
+      </c>
+      <c r="D6">
         <v>0.120886458482764</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SARIMA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5.418463615568887</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.378560951275179</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1316141303120424</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ARIMAX</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.689571449340434</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.46113021708699</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1619318402081192</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>SARIMAX</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.720375068125891</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4625467972458897</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1622847461946096</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.577393118650541</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4920703323944381</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5.6855958818785322</v>
+      </c>
+      <c r="C7">
+        <v>0.39836508104514878</v>
+      </c>
+      <c r="D7">
+        <v>0.1383254968071802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6.6895714493404341</v>
+      </c>
+      <c r="C8">
+        <v>0.46113021708698998</v>
+      </c>
+      <c r="D8">
+        <v>0.16193184020811921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>6.7424103096556181</v>
+      </c>
+      <c r="C9">
+        <v>0.46382373108642949</v>
+      </c>
+      <c r="D9">
+        <v>0.1629767155299528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>7.5773931186505408</v>
+      </c>
+      <c r="C10">
+        <v>0.49207033239443809</v>
+      </c>
+      <c r="D10">
         <v>0.1697873224940466</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Random Forest Regressor</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.745086837840486</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4885584324417955</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1608985543086039</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>XGBRegressor</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.796287478735437</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4928973346647589</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1617798858268744</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>LGBMRegressor</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.389914096463112</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5432610763439671</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1733014608688531</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>6.7450868378404856</v>
+      </c>
+      <c r="C11">
+        <v>0.48855843244179548</v>
+      </c>
+      <c r="D11">
+        <v>0.16089855430860389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>6.7962874787354366</v>
+      </c>
+      <c r="C12">
+        <v>0.49289733466475888</v>
+      </c>
+      <c r="D12">
+        <v>0.16177988582687439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>7.3899140964631123</v>
+      </c>
+      <c r="C13">
+        <v>0.54326107634396714</v>
+      </c>
+      <c r="D13">
+        <v>0.17330146086885309</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -1,94 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/franchesco_sanches_pucpr_edu_br/Documents/Documents/GitHub/Mestre-Tchesko/Modelos em Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2BB1D69C5B80D048079B3011591620F66DD3FB81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AE92F6-1019-41CD-BBA4-D253A11BFF57}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>sMAPE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>RRMSE</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>ARX</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>ARMA</t>
-  </si>
-  <si>
-    <t>ARIMA</t>
-  </si>
-  <si>
-    <t>SARIMA</t>
-  </si>
-  <si>
-    <t>ARIMAX</t>
-  </si>
-  <si>
-    <t>SARIMAX</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
-    <t>Random Forest Regressor</t>
-  </si>
-  <si>
-    <t>XGBRegressor</t>
-  </si>
-  <si>
-    <t>LGBMRegressor</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,195 +420,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>4.7477899114223696</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sMAPE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>RRMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.74778991142237</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.3288058369845771</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.1170578368275651</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>6.6944478959489784</v>
-      </c>
-      <c r="C3">
-        <v>0.46150185444345682</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ARX</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.694447895948978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4615018544434568</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.161818414213101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4.8616480903723103</v>
-      </c>
-      <c r="C4">
-        <v>0.33612690265684952</v>
-      </c>
-      <c r="D4">
-        <v>0.11899208708101321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4.9202428003667817</v>
-      </c>
-      <c r="C5">
-        <v>0.34022903131320131</v>
-      </c>
-      <c r="D5">
-        <v>0.11943913479769661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4.9566047645735809</v>
-      </c>
-      <c r="C6">
-        <v>0.34411795859088251</v>
-      </c>
-      <c r="D6">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.86164809037231</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3361269026568495</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1189920870810132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ARMA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.920242800366782</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3402290313132013</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1194391347976966</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ARIMA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.956604764573581</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3441179585908825</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.120886458482764</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>5.6855958818785322</v>
-      </c>
-      <c r="C7">
-        <v>0.39836508104514878</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SARIMA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.685595881878532</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3983650810451488</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1383254968071802</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>6.6895714493404341</v>
-      </c>
-      <c r="C8">
-        <v>0.46113021708698998</v>
-      </c>
-      <c r="D8">
-        <v>0.16193184020811921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>6.7424103096556181</v>
-      </c>
-      <c r="C9">
-        <v>0.46382373108642949</v>
-      </c>
-      <c r="D9">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ARIMAX</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.689571449340434</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.46113021708699</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1619318402081192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SARIMAX</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.742410309655618</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4638237310864295</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.1629767155299528</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>7.5773931186505408</v>
-      </c>
-      <c r="C10">
-        <v>0.49207033239443809</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.577393118650541</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4920703323944381</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.1697873224940466</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>6.7450868378404856</v>
-      </c>
-      <c r="C11">
-        <v>0.48855843244179548</v>
-      </c>
-      <c r="D11">
-        <v>0.16089855430860389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>6.7962874787354366</v>
-      </c>
-      <c r="C12">
-        <v>0.49289733466475888</v>
-      </c>
-      <c r="D12">
-        <v>0.16177988582687439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>7.3899140964631123</v>
-      </c>
-      <c r="C13">
-        <v>0.54326107634396714</v>
-      </c>
-      <c r="D13">
-        <v>0.17330146086885309</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.745086837840486</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4885584324417955</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1608985543086039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>XGBRegressor</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.796287478735437</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4928973346647589</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1617798858268744</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LGBMRegressor</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7.389914096463112</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5432610763439671</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1733014608688531</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.74778991142237</v>
+        <v>3.934114590733956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3288058369845771</v>
+        <v>0.2590720905715063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1170578368275651</v>
+        <v>0.09263442187717291</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.694447895948978</v>
+        <v>4.32246646083493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4615018544434568</v>
+        <v>0.2844924936911208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161818414213101</v>
+        <v>0.102963028323981</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.86164809037231</v>
+        <v>3.986858289199011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3361269026568495</v>
+        <v>0.2616074597509394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1189920870810132</v>
+        <v>0.09258543703349725</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.920242800366782</v>
+        <v>3.928434731858949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3402290313132013</v>
+        <v>0.2587492501400397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1194391347976966</v>
+        <v>0.09252110444781333</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.956604764573581</v>
+        <v>3.920929560292089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3441179585908825</v>
+        <v>0.2582504802388378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120886458482764</v>
+        <v>0.09228367780798219</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.685595881878532</v>
+        <v>3.907846294377894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3983650810451488</v>
+        <v>0.2575675981272806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1383254968071802</v>
+        <v>0.0928601320841646</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.689571449340434</v>
+        <v>4.109415742110391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.46113021708699</v>
+        <v>0.2699815292386081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1619318402081192</v>
+        <v>0.09825591602049168</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.742410309655618</v>
+        <v>4.074765700129938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4638237310864295</v>
+        <v>0.2681518771909696</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1629767155299528</v>
+        <v>0.09779377784119742</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.577393118650541</v>
+        <v>7.642430946334298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4920703323944381</v>
+        <v>0.3739121039149107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1697873224940466</v>
+        <v>0.1762494535177203</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.745086837840486</v>
+        <v>8.626487528606088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4885584324417955</v>
+        <v>0.6233323537672218</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1608985543086039</v>
+        <v>0.1946789556514914</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.796287478735437</v>
+        <v>8.859118179579413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4928973346647589</v>
+        <v>0.6440288251925268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1617798858268744</v>
+        <v>0.1991651839865158</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.389914096463112</v>
+        <v>8.433818906745774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5432610763439671</v>
+        <v>0.6064841412003724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1733014608688531</v>
+        <v>0.1920908270383936</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.642430946334298</v>
+        <v>7.764391960497003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3739121039149107</v>
+        <v>0.3976483697027742</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1762494535177203</v>
+        <v>0.1768919023836739</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.626487528606088</v>
+        <v>8.491241210406624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6233323537672218</v>
+        <v>0.6112074850092742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1946789556514914</v>
+        <v>0.1930147908497755</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.859118179579413</v>
+        <v>8.683753469082694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6440288251925268</v>
+        <v>0.6284315007277625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1991651839865158</v>
+        <v>0.1960786656714245</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.433818906745774</v>
+        <v>8.480673402151302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6064841412003724</v>
+        <v>0.6107633715902669</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1920908270383936</v>
+        <v>0.1927287322095202</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.458126185304844</v>
+        <v>8.475645522426451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6094312432219671</v>
+        <v>0.610971052503153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1916393707454566</v>
+        <v>0.191899406947434</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.475645522426451</v>
+        <v>8.449507712942381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.610971052503153</v>
+        <v>0.6086773743871965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.191899406947434</v>
+        <v>0.191516762681167</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.449507712942381</v>
+        <v>8.454242175963035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6086773743871965</v>
+        <v>0.609084072808282</v>
       </c>
       <c r="D11" t="n">
-        <v>0.191516762681167</v>
+        <v>0.1916018649502726</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.454242175963035</v>
+        <v>8.469704195947775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.609084072808282</v>
+        <v>0.610461950353301</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1916018649502726</v>
+        <v>0.1917697794199824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.934114590733956</v>
+        <v>3.93344152381963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2590720905715063</v>
+        <v>0.2590602998339134</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09263442187717291</v>
+        <v>0.09262968939991673</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.149894673899128</v>
+        <v>4.140412389761662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2729483414001762</v>
+        <v>0.2724041211077276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09958301411844098</v>
+        <v>0.09946123194844181</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.986858289199011</v>
+        <v>4.704746571066347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2616074597509394</v>
+        <v>0.3109827355812362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09258543703349725</v>
+        <v>0.1082339604258491</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.928434731858949</v>
+        <v>3.933581621395642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2587492501400397</v>
+        <v>0.2590511544865341</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09252110444781333</v>
+        <v>0.09262814565285138</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.920929560292089</v>
+        <v>3.934146855096769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2582504802388378</v>
+        <v>0.2592252895532648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09228367780798219</v>
+        <v>0.09261247626737568</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.907846294377894</v>
+        <v>3.918369351877518</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2575675981272806</v>
+        <v>0.2605419577794725</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0928601320841646</v>
+        <v>0.09209166437076098</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.158538687036007</v>
+        <v>4.156309291592899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2735086576053499</v>
+        <v>0.2733523043285976</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09984504154495866</v>
+        <v>0.09982713118511718</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.164960039583183</v>
+        <v>4.156234974605002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2738938166246533</v>
+        <v>0.2733392420179581</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1000361743820424</v>
+        <v>0.09977002790626016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.469704195947775</v>
+        <v>8.46035308856988</v>
       </c>
       <c r="C11" t="n">
-        <v>0.610461950353301</v>
+        <v>0.6096200793046902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1917697794199824</v>
+        <v>0.1916318382029694</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.681302582054871</v>
+        <v>8.763871064521425</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6294969135145282</v>
+        <v>0.637173510389181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1950371496912886</v>
+        <v>0.1966870812492118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.93344152381963</v>
+        <v>7.878475299362666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2590602998339134</v>
+        <v>0.2592122208798305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09262968939991673</v>
+        <v>0.09259379865091387</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.140412389761662</v>
+        <v>8.287139714020569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2724041211077276</v>
+        <v>0.2725640639081311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09946123194844181</v>
+        <v>0.09958981795471504</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.704746571066347</v>
+        <v>8.19703634367241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3109827355812362</v>
+        <v>0.2706485128017629</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1082339604258491</v>
+        <v>0.09321875106183099</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.933581621395642</v>
+        <v>7.867708139322165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2590511544865341</v>
+        <v>0.2590648971286618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09262814565285138</v>
+        <v>0.09262925945639837</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.934146855096769</v>
+        <v>7.660527199518989</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2592252895532648</v>
+        <v>0.253314835580709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09261247626737568</v>
+        <v>0.09195238774982158</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.918369351877518</v>
+        <v>7.883428351236698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2605419577794725</v>
+        <v>0.2608652001633383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09209166437076098</v>
+        <v>0.09299539208226344</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.156309291592899</v>
+        <v>8.310272519600828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2733523043285976</v>
+        <v>0.2732754459034233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09982713118511718</v>
+        <v>0.09981322571007116</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.156234974605002</v>
+        <v>8.305923217966335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2733392420179581</v>
+        <v>0.2731811592468923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09977002790626016</v>
+        <v>0.09978423772690535</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.764391960497003</v>
+        <v>8.597520069124968</v>
       </c>
       <c r="C10" t="n">
         <v>0.3976483697027742</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.46035308856988</v>
+        <v>16.93024217773371</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6096200793046902</v>
+        <v>0.610062104226046</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1916318382029694</v>
+        <v>0.1917232632072913</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.763871064521425</v>
+        <v>17.52774212904285</v>
       </c>
       <c r="C12" t="n">
         <v>0.637173510389181</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.445687016107938</v>
+        <v>16.89137403221588</v>
       </c>
       <c r="C13" t="n">
         <v>0.608708523525723</v>

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_test.xlsx
+++ b/Modelos em Python/1_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="12">
